--- a/databases/oportunidades/Oportunidad - Mayor demanda de productos orgánicos.xlsx
+++ b/databases/oportunidades/Oportunidad - Mayor demanda de productos orgánicos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{0B5046BF-653E-43FD-A777-C6C5446AC4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1581B1A-8B29-48B3-8FC2-9851A04ED79F}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{0B5046BF-653E-43FD-A777-C6C5446AC4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DAF24E2-E4E1-40B0-910F-8BA82F2FD3E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="\a">'[1]R. Natural'!#REF!</definedName>
     <definedName name="_A2" localSheetId="3">'[1]R. Natural'!#REF!</definedName>
     <definedName name="_A2">'[1]R. Natural'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fig2'!$A$1:$E$69</definedName>
     <definedName name="_xlnm.Database" localSheetId="3">[2]OPERACIONES!#REF!</definedName>
     <definedName name="_xlnm.Database">[2]OPERACIONES!#REF!</definedName>
     <definedName name="FemaleDa" localSheetId="3">#REF!</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="251">
   <si>
     <t>Nombre</t>
   </si>
@@ -106,42 +107,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Mejora de la empleabilidad</t>
-  </si>
-  <si>
-    <t>La inclusión digital facilita el acceso a empleos mejor remunerados y amplía las oportunidades laborales mediante plataformas digitales.</t>
-  </si>
-  <si>
-    <t>Inclusión financiera</t>
-  </si>
-  <si>
-    <t>El acceso a servicios financieros digitales permite generar historial crediticio, facilitando el acceso a préstamos y reduciendo la exclusión financiera.</t>
-  </si>
-  <si>
-    <t>Mejora de la productividad y el desarrollo económico</t>
-  </si>
-  <si>
-    <t>Las tecnologías de la información y la comunicación contribuyen al desarrollo económico de manera directa mediante el impulso a la productividad empresarial, y de manera indirecta mediante la innovación y difusión del conocimiento.</t>
-  </si>
-  <si>
-    <t>Mayor eficiencia en la gestión empresarial</t>
-  </si>
-  <si>
-    <t>La automatización optimiza procesos, reduce errores y permite expandir negocios sin necesidad de infraestructura física extensa.</t>
-  </si>
-  <si>
-    <t>Mayor acceso a la educación</t>
-  </si>
-  <si>
-    <t>La digitalización facilita el aprendizaje en línea y el uso de plataformas digitales, reduciendo la desigualdad educativa en zonas rurales.</t>
-  </si>
-  <si>
-    <t>Mayor acceso a la salud</t>
-  </si>
-  <si>
-    <t>La telemedicina permite recibir atención médica sin desplazamientos, mejorando la salud en comunidades alejadas.</t>
-  </si>
-  <si>
     <t>Formato número</t>
   </si>
   <si>
@@ -154,9 +119,6 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>Miles de millones de USD</t>
-  </si>
-  <si>
     <t>https://sicoexa.midagri.gob.pe/SICOEXA/Exportaciones/IndexExport</t>
   </si>
   <si>
@@ -812,6 +774,51 @@
   </si>
   <si>
     <t>Área orgánica (no incluye área en transición)</t>
+  </si>
+  <si>
+    <t>Miles de USD</t>
+  </si>
+  <si>
+    <t>Reducción de costos de producción</t>
+  </si>
+  <si>
+    <t>Menores gastos en insumos químicos y tratamientos fitosanitarios en comparación con la agricultura convencional, mejorando la eficiencia económica.</t>
+  </si>
+  <si>
+    <t>Mejora de la fertilidad del suelo</t>
+  </si>
+  <si>
+    <t>Los productos orgánicos reducen la ingesta de residuos químicos en los consumidores, promoviendo una alimentación más saludable.</t>
+  </si>
+  <si>
+    <t>Conservación ambiental y biodiversidad</t>
+  </si>
+  <si>
+    <t>Al evitar agroquímicos sintéticos, se protegen los ecosistemas, el agua y las especies benéficas para la agricultura.</t>
+  </si>
+  <si>
+    <t>Eficiencia energética</t>
+  </si>
+  <si>
+    <t>Atractivo para mercados sostenibles</t>
+  </si>
+  <si>
+    <t>Satisface la creciente demanda global de alimentos libres de transgénicos y producidos bajo estándares ecológicos.</t>
+  </si>
+  <si>
+    <t>La producción orgánica permite acceder a mercados internacionales con mejores precios, diversificando las oportunidades comerciales a nivel local e internacional.</t>
+  </si>
+  <si>
+    <t>Mayor rentabilidad a largo plazo por mejores precios</t>
+  </si>
+  <si>
+    <t>Menor exposición a pesticidas en los consumidores</t>
+  </si>
+  <si>
+    <t>Prácticas sostenibles como rotación de cultivos y uso de abonos orgánicos preservan la calidad y fertilidad del suelo, lo que puede tener impactos en la productividad a largo plazo.</t>
+  </si>
+  <si>
+    <t>Diversos estudios afirman que la agricultura orgánica requiere menos energía que los cultivos convencionales, en especial al prescindir de fertilizantes sintéticos, que demandan alto consumo energético en su producción y transporte.</t>
   </si>
 </sst>
 </file>
@@ -1195,13 +1202,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1243,13 +1250,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1333,9 +1340,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1373,7 +1380,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1479,7 +1486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1621,7 +1628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1632,7 +1639,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1679,16 +1686,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -1701,13 +1708,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1715,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1723,16 +1730,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
@@ -1742,10 +1749,10 @@
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -1754,7 +1761,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,18 +1794,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B2" s="22">
         <v>11504.51</v>
@@ -1809,7 +1816,7 @@
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B3" s="22">
         <v>990.42</v>
@@ -1820,7 +1827,7 @@
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B4" s="22">
         <v>1880.35</v>
@@ -1831,7 +1838,7 @@
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B5" s="22">
         <v>17.440000000000001</v>
@@ -1842,7 +1849,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B6" s="22">
         <v>5702.65</v>
@@ -1853,7 +1860,7 @@
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B7" s="22">
         <v>46063.737999999998</v>
@@ -1864,7 +1871,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B8" s="22">
         <v>8602.2083600000005</v>
@@ -1875,7 +1882,7 @@
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B9" s="22">
         <v>44</v>
@@ -1886,7 +1893,7 @@
     </row>
     <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B10" s="22">
         <v>3278.81</v>
@@ -1897,7 +1904,7 @@
     </row>
     <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B11" s="22">
         <v>1677</v>
@@ -1908,7 +1915,7 @@
     </row>
     <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B12" s="22">
         <v>51442.865899999997</v>
@@ -1919,7 +1926,7 @@
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B13" s="22">
         <v>2354.1999999999998</v>
@@ -1930,7 +1937,7 @@
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B14" s="22">
         <v>3836.72</v>
@@ -1941,7 +1948,7 @@
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B15" s="22">
         <v>351.99040000000002</v>
@@ -1952,7 +1959,7 @@
     </row>
     <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B16" s="22">
         <v>0</v>
@@ -1963,7 +1970,7 @@
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B17" s="22">
         <v>189314.81</v>
@@ -1974,7 +1981,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B18" s="22">
         <v>62</v>
@@ -1985,7 +1992,7 @@
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B19" s="22">
         <v>2243.61</v>
@@ -1996,7 +2003,7 @@
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B20" s="22">
         <v>6980.0375000000004</v>
@@ -2007,7 +2014,7 @@
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B21" s="22">
         <v>2730.25</v>
@@ -2018,7 +2025,7 @@
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B22" s="22">
         <v>30187.2395</v>
@@ -2029,7 +2036,7 @@
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B23" s="22">
         <v>6462.89</v>
@@ -2047,13 +2054,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E6A844-47B9-4FE0-AF74-86F5B1F6B641}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B69"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2067,61 +2074,61 @@
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>216</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C2" s="23">
-        <v>4817.13</v>
+        <v>189239.09</v>
       </c>
       <c r="D2" s="27">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E2" s="27">
-        <v>2333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C3" s="23">
-        <v>771.5</v>
+        <v>32868.620000000003</v>
       </c>
       <c r="D3" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="27">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>11893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C4" s="23">
         <v>31002.878000000001</v>
@@ -2133,233 +2140,233 @@
         <v>22259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="C5" s="23">
-        <v>1312.06</v>
+        <v>12430.86</v>
       </c>
       <c r="D5" s="27">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="E5" s="27">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>6651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C6" s="23">
-        <v>1929.63</v>
+        <v>10634.15</v>
       </c>
       <c r="D6" s="27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6" s="27">
-        <v>1372</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="C7" s="23">
-        <v>32868.620000000003</v>
+        <v>7199.56</v>
       </c>
       <c r="D7" s="27">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E7" s="27">
-        <v>11893</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="C8" s="23">
-        <v>528.14</v>
+        <v>5767.89</v>
       </c>
       <c r="D8" s="27">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E8" s="27">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C9" s="23">
+        <v>4817.13</v>
+      </c>
+      <c r="D9" s="27">
+        <v>18</v>
+      </c>
+      <c r="E9" s="27">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="23">
+        <v>4497.2049999999999</v>
+      </c>
+      <c r="D10" s="27">
+        <v>39</v>
+      </c>
+      <c r="E10" s="27">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2476.23</v>
+      </c>
+      <c r="D11" s="27">
+        <v>6</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2045.79</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1929.63</v>
+      </c>
+      <c r="D13" s="27">
+        <v>10</v>
+      </c>
+      <c r="E13" s="27">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="23">
         <v>1777.86</v>
-      </c>
-      <c r="D9" s="27">
-        <v>2</v>
-      </c>
-      <c r="E9" s="27">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="23">
-        <v>19.484999999999999</v>
-      </c>
-      <c r="D10" s="27">
-        <v>7</v>
-      </c>
-      <c r="E10" s="27">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="23">
-        <v>998.5</v>
-      </c>
-      <c r="D11" s="27">
-        <v>3</v>
-      </c>
-      <c r="E11" s="27">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="23">
-        <v>187.5</v>
-      </c>
-      <c r="D12" s="27">
-        <v>4</v>
-      </c>
-      <c r="E12" s="27">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="23">
-        <v>10634.15</v>
-      </c>
-      <c r="D13" s="27">
-        <v>2</v>
-      </c>
-      <c r="E13" s="27">
-        <v>5609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="23">
-        <v>0</v>
       </c>
       <c r="D14" s="27">
         <v>2</v>
       </c>
       <c r="E14" s="27">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>222</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C15" s="23">
-        <v>2045.79</v>
+        <v>1644.98</v>
       </c>
       <c r="D15" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="27">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>223</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C16" s="23">
-        <v>519.92999999999995</v>
+        <v>1400.42</v>
       </c>
       <c r="D16" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="27">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="C17" s="23">
-        <v>545.5</v>
+        <v>1312.06</v>
       </c>
       <c r="D17" s="27">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="E17" s="27">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C18" s="23">
         <v>1013.84</v>
@@ -2371,267 +2378,267 @@
         <v>389</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="C19" s="23">
-        <v>7199.56</v>
+        <v>998.5</v>
       </c>
       <c r="D19" s="27">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E19" s="27">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="C20" s="23">
+        <v>771.5</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="23">
+        <v>654.95000000000005</v>
+      </c>
+      <c r="D21" s="27">
+        <v>9</v>
+      </c>
+      <c r="E21" s="27">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="23">
+        <v>596.08000000000004</v>
+      </c>
+      <c r="D22" s="27">
+        <v>1</v>
+      </c>
+      <c r="E22" s="27">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="23">
+        <v>545.5</v>
+      </c>
+      <c r="D23" s="27">
+        <v>6</v>
+      </c>
+      <c r="E23" s="27">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="23">
+        <v>528.14</v>
+      </c>
+      <c r="D24" s="27">
+        <v>59</v>
+      </c>
+      <c r="E24" s="27">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="23">
+        <v>525</v>
+      </c>
+      <c r="D25" s="27">
+        <v>4</v>
+      </c>
+      <c r="E25" s="27">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="23">
+        <v>519.92999999999995</v>
+      </c>
+      <c r="D26" s="27">
+        <v>4</v>
+      </c>
+      <c r="E26" s="27">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="23">
+        <v>425.51</v>
+      </c>
+      <c r="D27" s="28">
+        <v>2</v>
+      </c>
+      <c r="E27" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="23">
+        <v>385.92</v>
+      </c>
+      <c r="D28" s="27">
+        <v>13</v>
+      </c>
+      <c r="E28" s="27">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="23">
+        <v>368.25</v>
+      </c>
+      <c r="D29" s="27">
+        <v>2</v>
+      </c>
+      <c r="E29" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="23">
+        <v>314.2</v>
+      </c>
+      <c r="D30" s="27">
+        <v>6</v>
+      </c>
+      <c r="E30" s="27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="23">
+        <v>248.79</v>
+      </c>
+      <c r="D31" s="27">
+        <v>1</v>
+      </c>
+      <c r="E31" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="23">
+        <v>225.2</v>
+      </c>
+      <c r="D32" s="27">
+        <v>8</v>
+      </c>
+      <c r="E32" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="23">
         <v>224</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D33" s="27">
         <v>2</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E33" s="27">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="23">
-        <v>180.7</v>
-      </c>
-      <c r="D21" s="27">
-        <v>2</v>
-      </c>
-      <c r="E21" s="27">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="23">
-        <v>5767.89</v>
-      </c>
-      <c r="D22" s="27">
-        <v>8</v>
-      </c>
-      <c r="E22" s="27">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="23">
-        <v>12430.86</v>
-      </c>
-      <c r="D23" s="27">
-        <v>18</v>
-      </c>
-      <c r="E23" s="27">
-        <v>6651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="23">
-        <v>92.83</v>
-      </c>
-      <c r="D24" s="27">
-        <v>1</v>
-      </c>
-      <c r="E24" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="23">
-        <v>4</v>
-      </c>
-      <c r="D25" s="27">
-        <v>2</v>
-      </c>
-      <c r="E25" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="23">
-        <v>314.2</v>
-      </c>
-      <c r="D26" s="27">
-        <v>6</v>
-      </c>
-      <c r="E26" s="27">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="23">
-        <v>0.54</v>
-      </c>
-      <c r="D27" s="27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="23">
-        <v>4497.2049999999999</v>
-      </c>
-      <c r="D28" s="27">
-        <v>39</v>
-      </c>
-      <c r="E28" s="27">
-        <v>4631</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="23">
-        <v>124.25</v>
-      </c>
-      <c r="D29" s="27">
-        <v>1</v>
-      </c>
-      <c r="E29" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="23">
-        <v>47.2</v>
-      </c>
-      <c r="D30" s="27">
-        <v>1</v>
-      </c>
-      <c r="E30" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="23">
-        <v>525</v>
-      </c>
-      <c r="D31" s="27">
-        <v>4</v>
-      </c>
-      <c r="E31" s="27">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="23">
-        <v>2476.23</v>
-      </c>
-      <c r="D32" s="27">
-        <v>6</v>
-      </c>
-      <c r="E32" s="27">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="23">
-        <v>1.06</v>
-      </c>
-      <c r="D33" s="27">
-        <v>1</v>
-      </c>
-      <c r="E33" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C34" s="23">
         <v>221.1</v>
@@ -2643,253 +2650,253 @@
         <v>537</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="C35" s="23">
-        <v>1400.42</v>
+        <v>187.5</v>
       </c>
       <c r="D35" s="27">
+        <v>4</v>
+      </c>
+      <c r="E35" s="27">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="23">
+        <v>180.7</v>
+      </c>
+      <c r="D36" s="27">
         <v>2</v>
       </c>
-      <c r="E35" s="27">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B36" s="21" t="s">
+      <c r="E36" s="27">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="23">
+        <v>171.7534</v>
+      </c>
+      <c r="D37" s="27">
+        <v>4</v>
+      </c>
+      <c r="E37" s="27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="23">
+        <v>164.41</v>
+      </c>
+      <c r="D38" s="27">
+        <v>5</v>
+      </c>
+      <c r="E38" s="27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="23">
+        <v>141.1</v>
+      </c>
+      <c r="D39" s="27">
+        <v>5</v>
+      </c>
+      <c r="E39" s="27">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="23">
+        <v>125.12</v>
+      </c>
+      <c r="D40" s="27">
+        <v>4</v>
+      </c>
+      <c r="E40" s="27">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="23">
+        <v>124.25</v>
+      </c>
+      <c r="D41" s="27">
+        <v>1</v>
+      </c>
+      <c r="E41" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="23">
-        <v>189239.09</v>
-      </c>
-      <c r="D36" s="27">
-        <v>4</v>
-      </c>
-      <c r="E36" s="27">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C37" s="23">
+      <c r="B42" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="23">
+        <v>123.45</v>
+      </c>
+      <c r="D42" s="27">
+        <v>2</v>
+      </c>
+      <c r="E42" s="27">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="23">
+        <v>117.21</v>
+      </c>
+      <c r="D43" s="27">
+        <v>2</v>
+      </c>
+      <c r="E43" s="27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="23">
         <v>95.1</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D44" s="27">
         <v>6</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E44" s="27">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C38" s="23">
-        <v>7.14</v>
-      </c>
-      <c r="D38" s="27">
+    <row r="45" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="23">
+        <v>92.83</v>
+      </c>
+      <c r="D45" s="27">
         <v>1</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E45" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C39" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="27">
-        <v>1</v>
-      </c>
-      <c r="E39" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C40" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="D40" s="27">
-        <v>1</v>
-      </c>
-      <c r="E40" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" s="23">
-        <v>141.1</v>
-      </c>
-      <c r="D41" s="27">
-        <v>5</v>
-      </c>
-      <c r="E41" s="27">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42" s="23">
-        <v>125.12</v>
-      </c>
-      <c r="D42" s="27">
-        <v>4</v>
-      </c>
-      <c r="E42" s="27">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C43" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="D43" s="27">
-        <v>1</v>
-      </c>
-      <c r="E43" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="23">
-        <v>0.16</v>
-      </c>
-      <c r="D44" s="27">
-        <v>1</v>
-      </c>
-      <c r="E44" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C45" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="D45" s="27">
-        <v>2</v>
-      </c>
-      <c r="E45" s="27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C46" s="23">
-        <v>248.79</v>
+        <v>84.15</v>
       </c>
       <c r="D46" s="27">
         <v>1</v>
       </c>
       <c r="E46" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>211</v>
+        <v>233</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="C47" s="23">
-        <v>60.07</v>
+        <v>75.3</v>
       </c>
       <c r="D47" s="27">
+        <v>2</v>
+      </c>
+      <c r="E47" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="23">
+        <v>60.52</v>
+      </c>
+      <c r="D48" s="27">
         <v>1</v>
-      </c>
-      <c r="E47" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="23">
-        <v>368.25</v>
-      </c>
-      <c r="D48" s="27">
-        <v>2</v>
       </c>
       <c r="E48" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C49" s="23">
-        <v>1.2E-2</v>
+        <v>60.07</v>
       </c>
       <c r="D49" s="27">
         <v>1</v>
@@ -2898,347 +2905,357 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C50" s="23">
-        <v>60.52</v>
+        <v>47.2</v>
       </c>
       <c r="D50" s="27">
         <v>1</v>
       </c>
       <c r="E50" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C51" s="23">
-        <v>123.45</v>
+        <v>19.484999999999999</v>
       </c>
       <c r="D51" s="27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E51" s="27">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C52" s="23">
-        <v>0.1</v>
+        <v>16</v>
       </c>
       <c r="D52" s="27">
         <v>2</v>
       </c>
       <c r="E52" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="C53" s="23">
-        <v>0.4</v>
+        <v>7.14</v>
       </c>
       <c r="D53" s="27">
         <v>1</v>
       </c>
       <c r="E53" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C54" s="23">
-        <v>596.08000000000004</v>
+        <v>7</v>
       </c>
       <c r="D54" s="27">
+        <v>2</v>
+      </c>
+      <c r="E54" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D55" s="27">
         <v>1</v>
       </c>
-      <c r="E54" s="27">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C55" s="23">
-        <v>1644.98</v>
-      </c>
-      <c r="D55" s="27">
-        <v>3</v>
-      </c>
       <c r="E55" s="27">
-        <v>544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C56" s="23">
-        <v>654.95000000000005</v>
+        <v>4</v>
       </c>
       <c r="D56" s="27">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E56" s="27">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C57" s="23">
-        <v>84.15</v>
+        <v>4</v>
       </c>
       <c r="D57" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="27">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C58" s="23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D58" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="27">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C59" s="23">
-        <v>117.21</v>
+        <v>1.06</v>
       </c>
       <c r="D59" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>214</v>
-      </c>
       <c r="C60" s="23">
-        <v>4</v>
+        <v>0.85</v>
       </c>
       <c r="D60" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="27">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="C61" s="23">
-        <v>4.5999999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="D61" s="27">
         <v>1</v>
       </c>
       <c r="E61" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="D62" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="23">
-        <v>225.2</v>
-      </c>
-      <c r="D62" s="27">
-        <v>8</v>
-      </c>
       <c r="E62" s="27">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C63" s="23">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D63" s="27">
         <v>1</v>
       </c>
       <c r="E63" s="27">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B64" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="D64" s="27">
+        <v>2</v>
+      </c>
+      <c r="E64" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="23">
-        <v>385.92</v>
-      </c>
-      <c r="D64" s="27">
-        <v>13</v>
-      </c>
-      <c r="E64" s="27">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="s">
-        <v>230</v>
-      </c>
       <c r="B65" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="D65" s="27">
+        <v>1</v>
+      </c>
+      <c r="E65" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="23">
-        <v>164.41</v>
-      </c>
-      <c r="D65" s="27">
-        <v>5</v>
-      </c>
-      <c r="E65" s="27">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="D66" s="27">
+        <v>1</v>
+      </c>
+      <c r="E66" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C66" s="23">
-        <v>171.7534</v>
-      </c>
-      <c r="D66" s="27">
-        <v>4</v>
-      </c>
-      <c r="E66" s="27">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
-        <v>235</v>
-      </c>
       <c r="B67" s="21" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C67" s="23">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="D67" s="27">
         <v>2</v>
       </c>
       <c r="E67" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>36</v>
+        <v>218</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="C68" s="23">
-        <v>75.3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D68" s="27">
+        <v>1</v>
+      </c>
+      <c r="E68" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="23">
+        <v>0</v>
+      </c>
+      <c r="D69" s="27">
         <v>2</v>
       </c>
-      <c r="E68" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="23">
-        <v>425.51</v>
-      </c>
-      <c r="D69" s="28">
-        <v>2</v>
-      </c>
-      <c r="E69" s="28">
-        <v>3</v>
+      <c r="E69" s="27">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E69" xr:uid="{23460DB1-68F8-473E-936B-79191E58B235}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Junín"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E69">
+      <sortCondition descending="1" ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3260,27 +3277,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C2" s="17">
         <v>180501.17</v>
@@ -3294,10 +3311,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C3" s="17">
         <v>263053.75</v>
@@ -3311,10 +3328,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C4" s="17">
         <v>72193.740000000005</v>
@@ -3328,10 +3345,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C5" s="17">
         <v>184442.33</v>
@@ -3345,10 +3362,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C6" s="17">
         <v>65113.45</v>
@@ -3362,10 +3379,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C7" s="17">
         <v>123699.58</v>
@@ -3379,10 +3396,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="17">
         <v>71598.880000000005</v>
@@ -3396,10 +3413,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C9" s="17">
         <v>93661.02</v>
@@ -3413,10 +3430,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C10" s="17">
         <v>44353.03</v>
@@ -3430,10 +3447,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C11" s="17">
         <v>203576.93</v>
@@ -3447,10 +3464,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C12" s="17">
         <v>25921.86</v>
@@ -3464,10 +3481,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C13" s="17">
         <v>67082.149999999994</v>
@@ -3481,10 +3498,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C14" s="17">
         <v>22615.71</v>
@@ -3498,10 +3515,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C15" s="17">
         <v>110913.89</v>
@@ -3515,10 +3532,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C16" s="17">
         <v>42804.160000000003</v>
@@ -3532,10 +3549,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C17" s="17">
         <v>26745.14</v>
@@ -3549,10 +3566,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C18" s="17">
         <v>67229.86</v>
@@ -3566,10 +3583,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C19" s="17">
         <v>16196.54</v>
@@ -3583,10 +3600,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C20" s="17">
         <v>14525.78</v>
@@ -3600,10 +3617,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C21" s="17">
         <v>65581.13</v>
@@ -3617,10 +3634,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C22" s="17">
         <v>13679.54</v>
@@ -3634,10 +3651,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C23" s="17">
         <v>12962.03</v>
@@ -3651,10 +3668,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17">
         <v>59572.43</v>
@@ -3668,10 +3685,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C25" s="17">
         <v>12169.76</v>
@@ -3685,10 +3702,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C26" s="17">
         <v>41653.410000000003</v>
@@ -3702,10 +3719,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C27" s="17">
         <v>18102.68</v>
@@ -3719,10 +3736,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C28" s="17">
         <v>96330.99</v>
@@ -3736,10 +3753,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C29" s="17">
         <v>5121.6400000000003</v>
@@ -3753,10 +3770,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C30" s="17">
         <v>24251.01</v>
@@ -3770,10 +3787,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C31" s="17">
         <v>146324.28</v>
@@ -3787,10 +3804,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C32" s="17">
         <v>16927.78</v>
@@ -3804,10 +3821,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C33" s="17">
         <v>24268.98</v>
@@ -3821,10 +3838,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C34" s="17">
         <v>7402.32</v>
@@ -3838,10 +3855,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C35" s="17">
         <v>25471.58</v>
@@ -3855,10 +3872,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C36" s="17">
         <v>18687.71</v>
@@ -3872,10 +3889,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C37" s="17">
         <v>22441.26</v>
@@ -3889,10 +3906,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C38" s="17">
         <v>20428.88</v>
@@ -3906,10 +3923,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C39" s="17">
         <v>7491.24</v>
@@ -3923,10 +3940,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C40" s="17">
         <v>23599.3</v>
@@ -3940,10 +3957,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C41" s="17">
         <v>26874.36</v>
@@ -3957,10 +3974,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C42" s="17">
         <v>19219.91</v>
@@ -3974,10 +3991,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C43" s="17">
         <v>69575.42</v>
@@ -3991,10 +4008,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C44" s="17">
         <v>5956.4</v>
@@ -4008,10 +4025,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
         <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
       </c>
       <c r="C45" s="17">
         <v>10167.32</v>
@@ -4025,10 +4042,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C46" s="17">
         <v>3666.49</v>
@@ -4042,10 +4059,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C47" s="17">
         <v>17189.23</v>
@@ -4059,10 +4076,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C48" s="17">
         <v>54920.61</v>
@@ -4076,10 +4093,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C49" s="17">
         <v>9690.32</v>
@@ -4093,10 +4110,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C50" s="17">
         <v>5054.07</v>
@@ -4110,10 +4127,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C51" s="17">
         <v>7897.01</v>
@@ -4127,10 +4144,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C52" s="17">
         <v>41887.9</v>
@@ -4144,10 +4161,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C53" s="17">
         <v>27244.639999999999</v>
@@ -4161,10 +4178,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C54" s="17">
         <v>13377.72</v>
@@ -4178,10 +4195,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C55" s="17">
         <v>12972.43</v>
@@ -4195,10 +4212,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C56" s="17">
         <v>20764.919999999998</v>
@@ -4212,10 +4229,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C57" s="17">
         <v>6503.72</v>
@@ -4229,10 +4246,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C58" s="17">
         <v>5719.32</v>
@@ -4246,10 +4263,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C59" s="17">
         <v>2315.85</v>
@@ -4263,10 +4280,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C60" s="17">
         <v>5762.15</v>
@@ -4280,10 +4297,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C61" s="17">
         <v>6381.18</v>
@@ -4297,10 +4314,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C62" s="17">
         <v>13318.09</v>
@@ -4314,10 +4331,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C63" s="18">
         <v>255.85</v>
@@ -4331,10 +4348,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C64" s="17">
         <v>18689.07</v>
@@ -4348,10 +4365,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C65" s="17">
         <v>7945.49</v>
@@ -4365,10 +4382,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C66" s="17">
         <v>29461.35</v>
@@ -4382,10 +4399,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C67" s="17">
         <v>14124.33</v>
@@ -4399,10 +4416,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C68" s="17">
         <v>10763.83</v>
@@ -4416,10 +4433,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C69" s="17">
         <v>8965.34</v>
@@ -4433,10 +4450,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C70" s="17">
         <v>19614.939999999999</v>
@@ -4450,10 +4467,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C71" s="17">
         <v>5590.74</v>
@@ -4467,10 +4484,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C72" s="17">
         <v>10301.32</v>
@@ -4484,10 +4501,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C73" s="18">
         <v>263.13</v>
@@ -4501,10 +4518,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C74" s="17">
         <v>3053.56</v>
@@ -4518,10 +4535,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C75" s="17">
         <v>10838.53</v>
@@ -4535,10 +4552,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C76" s="17">
         <v>5874.17</v>
@@ -4552,10 +4569,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C77" s="17">
         <v>7014.87</v>
@@ -4569,10 +4586,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C78" s="17">
         <v>12070.31</v>
@@ -4586,10 +4603,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C79" s="17">
         <v>21143.34</v>
@@ -4603,10 +4620,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C80" s="17">
         <v>8930.3799999999992</v>
@@ -4620,10 +4637,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C81" s="18">
         <v>247.72</v>
@@ -4637,10 +4654,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C82" s="18">
         <v>50.63</v>
@@ -4654,10 +4671,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C83" s="17">
         <v>6519.47</v>
@@ -4671,10 +4688,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C84" s="17">
         <v>11541.38</v>
@@ -4688,10 +4705,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C85" s="17">
         <v>12322.97</v>
@@ -4705,10 +4722,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C86" s="17">
         <v>2730.4</v>
@@ -4722,10 +4739,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C87" s="17">
         <v>11686.13</v>
@@ -4739,10 +4756,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C88" s="17">
         <v>9743.34</v>
@@ -4756,10 +4773,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C89" s="17">
         <v>46915.14</v>
@@ -4773,10 +4790,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C90" s="17">
         <v>3298.85</v>
@@ -4790,10 +4807,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" t="s">
         <v>42</v>
-      </c>
-      <c r="B91" t="s">
-        <v>55</v>
       </c>
       <c r="C91" s="17">
         <v>7641.06</v>
@@ -4807,10 +4824,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C92" s="17">
         <v>12240.8</v>
@@ -4824,10 +4841,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C93" s="17">
         <v>11204.76</v>
@@ -4841,10 +4858,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C94" s="18">
         <v>465.42</v>
@@ -4858,10 +4875,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C95" s="17">
         <v>3702.93</v>
@@ -4875,10 +4892,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C96" s="17">
         <v>3278.67</v>
@@ -4892,10 +4909,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C97" s="17">
         <v>17096.38</v>
@@ -4909,10 +4926,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C98" s="17">
         <v>10406.34</v>
@@ -4926,10 +4943,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C99" s="17">
         <v>29495.040000000001</v>
@@ -4943,10 +4960,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C100" s="17">
         <v>7226.39</v>
@@ -4960,10 +4977,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C101" s="17">
         <v>5209.47</v>
@@ -4977,10 +4994,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C102" s="17">
         <v>6530.86</v>
@@ -4994,10 +5011,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C103" s="17">
         <v>4480.28</v>
@@ -5011,10 +5028,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C104" s="17">
         <v>1054</v>
@@ -5028,10 +5045,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B105" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C105" s="17">
         <v>26495.27</v>
@@ -5045,10 +5062,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C106" s="17">
         <v>23443.23</v>
@@ -5062,10 +5079,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C107" s="17">
         <v>2671.71</v>
@@ -5079,10 +5096,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C108" s="17">
         <v>7424.53</v>
@@ -5096,10 +5113,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C109" s="17">
         <v>4930.16</v>
@@ -5113,10 +5130,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C110" s="17">
         <v>2645.71</v>
@@ -5130,10 +5147,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C111" s="17">
         <v>16321.25</v>
@@ -5147,10 +5164,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C112" s="17">
         <v>1139.99</v>
@@ -5164,10 +5181,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C113" s="17">
         <v>3928.08</v>
@@ -5181,10 +5198,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C114" s="17">
         <v>2155.65</v>
@@ -5198,10 +5215,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C115" s="17">
         <v>7789.1</v>
@@ -5215,10 +5232,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C116" s="17">
         <v>10462.33</v>
@@ -5232,10 +5249,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C117" s="18">
         <v>5.91</v>
@@ -5249,10 +5266,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C118" s="17">
         <v>58669.17</v>
@@ -5266,10 +5283,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C119" s="17">
         <v>6165.7</v>
@@ -5283,10 +5300,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C120" s="17">
         <v>65643.89</v>
@@ -5300,10 +5317,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C121" s="17">
         <v>6126.79</v>
@@ -5317,10 +5334,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C122" s="17">
         <v>3649.95</v>
@@ -5334,10 +5351,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C123" s="17">
         <v>3480.71</v>
@@ -5351,10 +5368,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C124" s="17">
         <v>7019.63</v>
@@ -5368,10 +5385,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C125" s="17">
         <v>6980.21</v>
@@ -5385,10 +5402,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C126" s="17">
         <v>16528.73</v>
@@ -5402,10 +5419,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C127" s="17">
         <v>8171.2</v>
@@ -5419,10 +5436,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C128" s="17">
         <v>1837.68</v>
@@ -5436,10 +5453,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C129" s="17">
         <v>1625.65</v>
@@ -5453,10 +5470,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C130" s="17">
         <v>14156.74</v>
@@ -5470,10 +5487,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C131" s="17">
         <v>2859.39</v>
@@ -5487,10 +5504,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C132" s="17">
         <v>1862.28</v>
@@ -5504,10 +5521,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C133" s="17">
         <v>6594.13</v>
@@ -5521,10 +5538,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B134" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C134" s="17">
         <v>12845.72</v>
@@ -5538,10 +5555,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C135" s="17">
         <v>1359.58</v>
@@ -5555,10 +5572,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C136" s="17">
         <v>5038.97</v>
@@ -5572,10 +5589,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C137" s="17">
         <v>4170.0200000000004</v>
@@ -5589,10 +5606,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C138" s="18">
         <v>140.91</v>
@@ -5606,10 +5623,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B139" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C139" s="17">
         <v>5002.8500000000004</v>
@@ -5623,10 +5640,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B140" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C140" s="17">
         <v>1046.8699999999999</v>
@@ -5640,10 +5657,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C141" s="17">
         <v>3743.7</v>
@@ -5657,10 +5674,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C142" s="17">
         <v>6930</v>
@@ -5674,10 +5691,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B143" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C143" s="17">
         <v>7625.97</v>
@@ -5691,10 +5708,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B144" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C144" s="17">
         <v>8273.85</v>
@@ -5708,10 +5725,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C145" s="17">
         <v>10420.18</v>
@@ -5725,10 +5742,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B146" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C146" s="17">
         <v>2664.57</v>
@@ -5742,10 +5759,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C147" s="17">
         <v>5028.9399999999996</v>
@@ -5759,10 +5776,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B148" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C148" s="17">
         <v>5126.16</v>
@@ -5776,10 +5793,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C149" s="17">
         <v>2482.2199999999998</v>
@@ -5793,10 +5810,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B150" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C150" s="18">
         <v>77.47</v>
@@ -5810,10 +5827,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B151" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C151" s="18">
         <v>9.09</v>
@@ -5827,10 +5844,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C152" s="17">
         <v>1752.6</v>
@@ -5844,10 +5861,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B153" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C153" s="17">
         <v>4764.67</v>
@@ -5861,10 +5878,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C154" s="17">
         <v>26878.37</v>
@@ -5878,10 +5895,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C155" s="17">
         <v>1563.87</v>
@@ -5895,10 +5912,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B156" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C156" s="17">
         <v>3148.61</v>
@@ -5912,10 +5929,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C157" s="17">
         <v>9395.58</v>
@@ -5929,10 +5946,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C158" s="17">
         <v>5344.21</v>
@@ -5946,10 +5963,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B159" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C159" s="17">
         <v>2634.94</v>
@@ -5963,10 +5980,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B160" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C160" s="17">
         <v>1439.23</v>
@@ -5980,10 +5997,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B161" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C161" s="17">
         <v>6122.34</v>
@@ -5997,10 +6014,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B162" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C162" s="17">
         <v>2786.17</v>
@@ -6014,10 +6031,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B163" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C163" s="17">
         <v>4257.68</v>
@@ -6031,10 +6048,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C164" s="17">
         <v>11437.75</v>
@@ -6048,10 +6065,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B165" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C165" s="17">
         <v>4467.5200000000004</v>
@@ -6065,10 +6082,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C166" s="17">
         <v>15436.46</v>
@@ -6082,10 +6099,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C167" s="17">
         <v>4140.83</v>
@@ -6099,10 +6116,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B168" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C168" s="17">
         <v>4074.96</v>
@@ -6116,10 +6133,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B169" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C169" s="17">
         <v>13589.05</v>
@@ -6133,10 +6150,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B170" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C170" s="17">
         <v>8859.82</v>
@@ -6150,10 +6167,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C171" s="18">
         <v>549.70000000000005</v>
@@ -6167,10 +6184,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B172" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C172" s="17">
         <v>5169.95</v>
@@ -6184,10 +6201,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C173" s="18">
         <v>594.79999999999995</v>
@@ -6201,10 +6218,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C174" s="17">
         <v>4328.75</v>
@@ -6218,10 +6235,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C175" s="17">
         <v>14525.15</v>
@@ -6235,10 +6252,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B176" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C176" s="17">
         <v>2801.46</v>
@@ -6252,10 +6269,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B177" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C177" s="17">
         <v>3796.68</v>
@@ -6269,10 +6286,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B178" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C178" s="17">
         <v>4985.59</v>
@@ -6286,10 +6303,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B179" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C179" s="17">
         <v>2698.83</v>
@@ -6303,10 +6320,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C180" s="17">
         <v>4478.43</v>
@@ -6320,10 +6337,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B181" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C181" s="18">
         <v>888.78</v>
@@ -6337,10 +6354,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B182" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C182" s="17">
         <v>4757.6899999999996</v>
@@ -6354,10 +6371,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B183" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C183" s="17">
         <v>4651.95</v>
@@ -6371,10 +6388,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B184" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C184" s="17">
         <v>2631.13</v>
@@ -6388,10 +6405,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B185" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C185" s="18">
         <v>25.34</v>
@@ -6405,10 +6422,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C186" s="17">
         <v>1770.28</v>
@@ -6422,10 +6439,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B187" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C187" s="17">
         <v>3932.61</v>
@@ -6439,10 +6456,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C188" s="17">
         <v>2939.35</v>
@@ -6456,10 +6473,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B189" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C189" s="17">
         <v>5357.72</v>
@@ -6473,10 +6490,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B190" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C190" s="17">
         <v>11821.58</v>
@@ -6490,10 +6507,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B191" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C191" s="18">
         <v>876.1</v>
@@ -6507,10 +6524,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C192" s="17">
         <v>1233.78</v>
@@ -6524,10 +6541,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B193" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C193" s="17">
         <v>1151.0899999999999</v>
@@ -6541,10 +6558,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B194" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C194" s="17">
         <v>5032.42</v>
@@ -6558,10 +6575,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C195" s="17">
         <v>3478.48</v>
@@ -6575,10 +6592,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C196" s="18">
         <v>954.07</v>
@@ -6592,10 +6609,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B197" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C197" s="17">
         <v>1039.1500000000001</v>
@@ -6609,10 +6626,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B198" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C198" s="17">
         <v>11884.44</v>
@@ -6626,10 +6643,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B199" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C199" s="17">
         <v>2456.67</v>
@@ -6643,10 +6660,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B200" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C200" s="18">
         <v>48.78</v>
@@ -6660,10 +6677,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B201" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C201" s="17">
         <v>1123.8399999999999</v>
@@ -6677,10 +6694,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B202" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C202" s="17">
         <v>5033.43</v>
@@ -6694,10 +6711,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B203" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C203" s="17">
         <v>1184.45</v>
@@ -6711,10 +6728,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C204" s="17">
         <v>2623.34</v>
@@ -6728,10 +6745,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B205" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C205" s="17">
         <v>9395.33</v>
@@ -6745,10 +6762,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B206" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C206" s="17">
         <v>2941.86</v>
@@ -6762,10 +6779,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B207" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C207" s="17">
         <v>1686.33</v>
@@ -6779,10 +6796,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B208" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C208" s="18">
         <v>393.68</v>
@@ -6796,10 +6813,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B209" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C209" s="17">
         <v>1241.1400000000001</v>
@@ -6813,10 +6830,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B210" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C210" s="17">
         <v>9271.33</v>
@@ -6830,10 +6847,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B211" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C211" s="17">
         <v>10045.58</v>
@@ -6847,10 +6864,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B212" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C212" s="17">
         <v>3167.2</v>
@@ -6864,10 +6881,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B213" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C213" s="17">
         <v>3892.77</v>
@@ -6881,10 +6898,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B214" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C214" s="17">
         <v>7107.28</v>
@@ -6898,10 +6915,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B215" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C215" s="17">
         <v>11129.48</v>
@@ -6915,10 +6932,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B216" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C216" s="17">
         <v>4414.09</v>
@@ -6932,10 +6949,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B217" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C217" s="17">
         <v>2045.76</v>
@@ -6949,10 +6966,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B218" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C218" s="18">
         <v>14.53</v>
@@ -6966,10 +6983,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B219" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C219" s="17">
         <v>5901.22</v>
@@ -6983,10 +7000,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B220" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C220" s="18">
         <v>605.62</v>
@@ -7000,10 +7017,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B221" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C221" s="18">
         <v>43.25</v>
@@ -7017,10 +7034,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B222" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C222" s="17">
         <v>3689.59</v>
@@ -7034,10 +7051,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B223" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C223" s="17">
         <v>2285.62</v>
@@ -7051,10 +7068,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B224" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C224" s="17">
         <v>1340.4</v>
@@ -7068,10 +7085,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B225" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C225" s="17">
         <v>2711.38</v>
@@ -7085,10 +7102,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B226" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C226" s="18">
         <v>732.87</v>
@@ -7102,10 +7119,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B227" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C227" s="17">
         <v>3918.06</v>
@@ -7119,10 +7136,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B228" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C228" s="17">
         <v>5605.45</v>
@@ -7136,10 +7153,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B229" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C229" s="18">
         <v>86.4</v>
@@ -7153,10 +7170,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B230" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C230" s="17">
         <v>2146.75</v>
@@ -7170,10 +7187,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B231" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C231" s="17">
         <v>2847.12</v>
@@ -7187,10 +7204,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B232" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C232" s="17">
         <v>1033.8499999999999</v>
@@ -7204,10 +7221,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B233" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C233" s="17">
         <v>1141.57</v>
@@ -7221,10 +7238,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B234" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C234" s="17">
         <v>8962.19</v>
@@ -7238,10 +7255,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B235" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C235" s="17">
         <v>5380.98</v>
@@ -7255,10 +7272,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B236" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C236" s="17">
         <v>6679.8</v>
@@ -7272,10 +7289,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B237" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C237" s="17">
         <v>4969.34</v>
@@ -7289,10 +7306,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B238" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C238" s="17">
         <v>2130.69</v>
@@ -7306,10 +7323,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B239" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C239" s="17">
         <v>2556.5500000000002</v>
@@ -7323,10 +7340,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B240" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C240" s="18">
         <v>439.12</v>
@@ -7340,10 +7357,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B241" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C241" s="17">
         <v>7320.81</v>
@@ -7357,10 +7374,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B242" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C242" s="17">
         <v>2429.9</v>
@@ -7374,10 +7391,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B243" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C243" s="17">
         <v>40718.480000000003</v>
@@ -7391,10 +7408,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B244" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C244" s="17">
         <v>5165.16</v>
@@ -7408,10 +7425,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B245" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C245" s="18">
         <v>148.69</v>
@@ -7425,10 +7442,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B246" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C246" s="17">
         <v>1374.99</v>
@@ -7442,10 +7459,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B247" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C247" s="17">
         <v>2028.79</v>
@@ -7459,10 +7476,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B248" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C248" s="17">
         <v>1646.36</v>
@@ -7476,10 +7493,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B249" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C249" s="17">
         <v>1915.64</v>
@@ -7493,10 +7510,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B250" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C250" s="17">
         <v>1972.51</v>
@@ -7510,10 +7527,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B251" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C251" s="17">
         <v>2186.38</v>
@@ -7527,10 +7544,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B252" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C252" s="17">
         <v>2822.68</v>
@@ -7544,10 +7561,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C253" s="18">
         <v>971.58</v>
@@ -7561,10 +7578,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B254" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C254" s="17">
         <v>1742.32</v>
@@ -7578,10 +7595,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B255" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C255" s="17">
         <v>10873.68</v>
@@ -7595,10 +7612,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B256" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C256" s="18">
         <v>8.49</v>
@@ -7612,10 +7629,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B257" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C257" s="17">
         <v>6617.89</v>
@@ -7629,10 +7646,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B258" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C258" s="18">
         <v>139.03</v>
@@ -7646,10 +7663,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B259" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C259" s="18">
         <v>950</v>
@@ -7663,10 +7680,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B260" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C260" s="17">
         <v>3271.22</v>
@@ -7680,10 +7697,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B261" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C261" s="17">
         <v>1853.71</v>
@@ -7697,10 +7714,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B262" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C262" s="18">
         <v>486.02</v>
@@ -7714,10 +7731,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B263" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C263" s="17">
         <v>2569.69</v>
@@ -7731,10 +7748,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B264" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C264" s="17">
         <v>7096.52</v>
@@ -7748,10 +7765,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B265" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C265" s="18">
         <v>64.59</v>
@@ -7765,10 +7782,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B266" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C266" s="17">
         <v>4824.28</v>
@@ -7782,10 +7799,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B267" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C267" s="17">
         <v>2190.4</v>
@@ -7799,10 +7816,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B268" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C268" s="17">
         <v>2593.69</v>
@@ -7816,10 +7833,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B269" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C269" s="17">
         <v>1991.79</v>
@@ -7833,10 +7850,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B270" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C270" s="17">
         <v>4747.6099999999997</v>
@@ -7850,10 +7867,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B271" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C271" s="18">
         <v>746.51</v>
@@ -7867,10 +7884,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B272" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C272" s="18">
         <v>305.74</v>
@@ -7884,10 +7901,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B273" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C273" s="18">
         <v>899.54</v>
@@ -7901,10 +7918,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B274" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C274" s="17">
         <v>3669.92</v>
@@ -7918,10 +7935,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B275" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C275" s="17">
         <v>1073.78</v>
@@ -7935,10 +7952,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B276" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C276" s="17">
         <v>2215.5700000000002</v>
@@ -7952,10 +7969,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B277" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C277" s="17">
         <v>2493.94</v>
@@ -7969,10 +7986,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B278" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C278" s="17">
         <v>1974.35</v>
@@ -7986,10 +8003,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B279" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C279" s="18">
         <v>864.12</v>
@@ -8003,10 +8020,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B280" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C280" s="18">
         <v>91.16</v>
@@ -8020,10 +8037,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B281" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C281" s="18">
         <v>207.78</v>
@@ -8037,10 +8054,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B282" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C282" s="17">
         <v>2096.6799999999998</v>
@@ -8054,10 +8071,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B283" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C283" s="17">
         <v>2109.52</v>
@@ -8071,10 +8088,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B284" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C284" s="17">
         <v>1204.1500000000001</v>
@@ -8088,10 +8105,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B285" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C285" s="17">
         <v>1602.67</v>
@@ -8105,10 +8122,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B286" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C286" s="17">
         <v>5208.8999999999996</v>
@@ -8122,10 +8139,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B287" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C287" s="18">
         <v>905.79</v>
@@ -8139,10 +8156,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B288" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C288" s="17">
         <v>2394.9899999999998</v>
@@ -8156,10 +8173,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B289" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C289" s="18">
         <v>33.520000000000003</v>
@@ -8173,10 +8190,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B290" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C290" s="17">
         <v>3944.81</v>
@@ -8190,10 +8207,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B291" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C291" s="17">
         <v>1921.73</v>
@@ -8207,10 +8224,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B292" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C292" s="17">
         <v>1077.33</v>
@@ -8224,10 +8241,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B293" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C293" s="17">
         <v>4104.55</v>
@@ -8241,10 +8258,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B294" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C294" s="17">
         <v>6212.96</v>
@@ -8258,10 +8275,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B295" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C295" s="18">
         <v>267.32</v>
@@ -8275,10 +8292,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B296" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C296" s="17">
         <v>1798.57</v>
@@ -8292,10 +8309,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B297" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C297" s="18">
         <v>31.44</v>
@@ -8309,10 +8326,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B298" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C298" s="17">
         <v>2750</v>
@@ -8326,10 +8343,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B299" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C299" s="17">
         <v>5515.38</v>
@@ -8343,10 +8360,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B300" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C300" s="17">
         <v>3769.26</v>
@@ -8360,10 +8377,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B301" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C301" s="17">
         <v>2614.3200000000002</v>
@@ -8377,10 +8394,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B302" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C302" s="17">
         <v>2162.9499999999998</v>
@@ -8394,10 +8411,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B303" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C303" s="18">
         <v>637.13</v>
@@ -8411,10 +8428,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B304" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C304" s="18">
         <v>38.18</v>
@@ -8428,10 +8445,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B305" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C305" s="18">
         <v>248.97</v>
@@ -8445,10 +8462,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B306" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C306" s="17">
         <v>1092.1199999999999</v>
@@ -8462,10 +8479,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B307" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C307" s="17">
         <v>3324.59</v>
@@ -8479,10 +8496,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B308" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C308" s="17">
         <v>1749.91</v>
@@ -8496,10 +8513,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B309" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C309" s="17">
         <v>1522.02</v>
@@ -8513,10 +8530,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B310" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C310" s="17">
         <v>1561.72</v>
@@ -8530,10 +8547,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B311" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C311" s="18">
         <v>478.17</v>
@@ -8547,10 +8564,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B312" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C312" s="18">
         <v>900.42</v>
@@ -8564,10 +8581,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B313" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C313" s="17">
         <v>1864.18</v>
@@ -8581,10 +8598,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B314" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C314" s="18">
         <v>434.71</v>
@@ -8598,10 +8615,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B315" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C315" s="17">
         <v>1456.44</v>
@@ -8615,10 +8632,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B316" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C316" s="18">
         <v>519.28</v>
@@ -8632,10 +8649,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B317" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C317" s="17">
         <v>2044.8</v>
@@ -8649,10 +8666,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B318" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C318" s="17">
         <v>1945.67</v>
@@ -8666,10 +8683,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B319" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C319" s="17">
         <v>3603.3</v>
@@ -8683,10 +8700,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B320" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C320" s="18">
         <v>219.13</v>
@@ -8700,10 +8717,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B321" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C321" s="17">
         <v>1094.5899999999999</v>
@@ -8717,10 +8734,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B322" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C322" s="18">
         <v>866.51</v>
@@ -8734,10 +8751,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B323" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C323" s="18">
         <v>134.86000000000001</v>
@@ -8751,10 +8768,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B324" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C324" s="17">
         <v>10317.799999999999</v>
@@ -8768,10 +8785,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B325" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C325" s="17">
         <v>1889</v>
@@ -8785,10 +8802,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B326" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C326" s="17">
         <v>1837.69</v>
@@ -8802,10 +8819,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B327" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C327" s="17">
         <v>1549</v>
@@ -8819,10 +8836,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B328" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C328" s="17">
         <v>2512.87</v>
@@ -8836,10 +8853,10 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B329" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C329" s="17">
         <v>1810.23</v>
@@ -8853,10 +8870,10 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B330" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C330" s="17">
         <v>5666.77</v>
@@ -8870,10 +8887,10 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B331" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C331" s="18">
         <v>489.93</v>
@@ -8887,10 +8904,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B332" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C332" s="17">
         <v>5046.82</v>
@@ -8904,10 +8921,10 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B333" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C333" s="17">
         <v>1561.9</v>
@@ -8921,10 +8938,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B334" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C334" s="18">
         <v>798.96</v>
@@ -8938,10 +8955,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B335" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C335" s="18">
         <v>725.25</v>
@@ -8955,10 +8972,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B336" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C336" s="18">
         <v>471.89</v>
@@ -8972,10 +8989,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B337" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C337" s="18">
         <v>527.28</v>
@@ -8989,10 +9006,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B338" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C338" s="17">
         <v>2530.42</v>
@@ -9006,10 +9023,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B339" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C339" s="17">
         <v>2204.9899999999998</v>
@@ -9029,10 +9046,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764638B3-CBDA-4083-BD0C-809F3F5B0023}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9052,53 +9069,66 @@
     </row>
     <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>24</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>